--- a/energy/אנרגיה-חיבור מרחוק.xlsx
+++ b/energy/אנרגיה-חיבור מרחוק.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1099E181-7D9F-4810-9071-2C42C9D8DE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A552E7-FD1F-4EA1-9445-C4F5E4D38C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54BA56CE-7511-41F5-8EA6-18E6B3D4C067}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>שם המוצג</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>במקרה הצורך שליטה בעזרת שלט MAG מדגם YDX-159 נמצא בחדר של דימה במגירה עליונה חומה בצד שמאל מתחת לשולחן</t>
+  </si>
+  <si>
+    <t>להדליק אש</t>
+  </si>
+  <si>
+    <t>רספברי פיי 3</t>
   </si>
 </sst>
 </file>
@@ -619,7 +625,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -815,9 +821,15 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1870010755</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
